--- a/mf-intelligence/data/separated_files/nippon/Nippon India Balanced Advantage Fund/Nippon India Balanced Advantage Fund_Feb_2025.xlsx
+++ b/mf-intelligence/data/separated_files/nippon/Nippon India Balanced Advantage Fund/Nippon India Balanced Advantage Fund_Feb_2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Industry / Rating</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2753,669 +2753,663 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GOI5196</t>
+          <t>MUFL412</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>IN0020230077</t>
+          <t>INE414G07IS4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>7.18% Government of India</t>
+          <t>8.85% Muthoot Finance Limited**</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>13600000</v>
+        <v>7500</v>
       </c>
       <c r="F73" t="n">
-        <v>13897.39</v>
+        <v>7557.16</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0165</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>0.070328</v>
+        <v>0.08588800000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GOI5721</t>
+          <t>SKRP20</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IN0020240027</t>
+          <t>INE08BR07029</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7.23% Government of India</t>
+          <t>8.08% Suryapet Khammam Road Pvt Ltd**</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>11500000</v>
+        <v>7500</v>
       </c>
       <c r="F74" t="n">
-        <v>11823.76</v>
+        <v>7434.08</v>
       </c>
       <c r="G74" t="n">
-        <v>0.014</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0.070328</v>
+        <v>0.08101800000000001</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GOI5713</t>
+          <t>SESA537</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>IN0020240019</t>
+          <t>INE205A08020</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>9.5% Vedanta Limited**</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>10000000</v>
+        <v>6500</v>
       </c>
       <c r="F75" t="n">
-        <v>10213.5</v>
+        <v>6465.8</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0121</v>
+        <v>0.0077</v>
       </c>
       <c r="H75" t="n">
-        <v>0.068953</v>
+        <v>0.097867</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GOI5081</t>
+          <t>MNGF318</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>IN0020230036</t>
+          <t>INE522D07CD6</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>7.17% Government of India</t>
+          <t>8.8% Manappuram Finance Limited**</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5000000</v>
+        <v>6000</v>
       </c>
       <c r="F76" t="n">
-        <v>5104.59</v>
+        <v>5991.5</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0061</v>
+        <v>0.0071</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06790400000000001</v>
+        <v>0.087482</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GOI4366</t>
+          <t>HLIC22</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>IN0020220011</t>
+          <t>INE795G08035</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>7.1% Government of India</t>
+          <t>8.05% HDFC Life Insurance Company Limited**</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5000000</v>
+        <v>6000</v>
       </c>
       <c r="F77" t="n">
-        <v>5083.42</v>
+        <v>5958.3</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006</v>
+        <v>0.0071</v>
       </c>
       <c r="H77" t="n">
-        <v>0.067383</v>
+        <v>0.08161499999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GOI6465</t>
+          <t>NBAR677</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>IN1920240281</t>
+          <t>INE261F08DO9</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>7.2% State Government Securities</t>
+          <t>7.4% National Bank For Agriculture and Rural Development</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>5000000</v>
+        <v>525</v>
       </c>
       <c r="F78" t="n">
-        <v>5001.03</v>
+        <v>5233.04</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0059</v>
+        <v>0.0062</v>
       </c>
       <c r="H78" t="n">
-        <v>0.073268</v>
+        <v>0.07729999999999999</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GOI5228</t>
+          <t>BAFL914</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>IN0020230085</t>
+          <t>INE296A07SV1</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>7.18% Government of India</t>
+          <t>7.82% Bajaj Finance Limited**</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3500000</v>
+        <v>5000</v>
       </c>
       <c r="F79" t="n">
-        <v>3586.03</v>
+        <v>5030.38</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0043</v>
+        <v>0.006</v>
       </c>
       <c r="H79" t="n">
-        <v>0.069075</v>
+        <v>0.07530000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GOI6471</t>
+          <t>HDBF322</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>IN2920240453</t>
+          <t>INE756I08256</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>7.17% State Government Securities</t>
+          <t>8.4% HDB Financial Services Limited**</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>2500000</v>
+        <v>5000</v>
       </c>
       <c r="F80" t="n">
-        <v>2501.04</v>
+        <v>5026.43</v>
       </c>
       <c r="G80" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="H80" t="n">
-        <v>0.072922</v>
+        <v>0.083047</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GOI4962</t>
+          <t>NXST23</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>IN0020220144</t>
+          <t>INE0NDH07035</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>7.29% Government of India</t>
+          <t>7.72% Nexus Select Trust - REIT**</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1359400</v>
+        <v>5000</v>
       </c>
       <c r="F81" t="n">
-        <v>1399.49</v>
+        <v>5001.6</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0017</v>
+        <v>0.0059</v>
       </c>
       <c r="H81" t="n">
-        <v>0.069156</v>
+        <v>0.0793</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GOI4068</t>
+          <t>EOPR34</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>IN3120210361</t>
+          <t>INE041007159</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>7.03% State Government Securities</t>
+          <t>7.73% Embassy Office Parks REIT**</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>500000</v>
+        <v>5000</v>
       </c>
       <c r="F82" t="n">
-        <v>500.17</v>
+        <v>4995.33</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0059</v>
       </c>
       <c r="H82" t="n">
-        <v>0.071449</v>
+        <v>0.079808</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GOI3607</t>
+          <t>APTU20</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>IN0020210160</t>
+          <t>INE04MH07034</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>7.3% Government of India</t>
+          <t>9% Aptus Finance India Private Limited**</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100000</v>
+        <v>5000</v>
       </c>
       <c r="F83" t="n">
-        <v>100.54</v>
+        <v>4929.54</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0001</v>
+        <v>0.0058</v>
       </c>
       <c r="H83" t="n">
-        <v>0.07205300000000001</v>
+        <v>0.1058</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GOI964</t>
+          <t>SUMM22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>IN0020120062</t>
+          <t>INE507T07070</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>8.3% Government of India</t>
+          <t>7.4% Summit Digitel Infrastructure Limited**</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>18200</v>
+        <v>450</v>
       </c>
       <c r="F84" t="n">
-        <v>20.69</v>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>4475.59</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.0053</v>
       </c>
       <c r="H84" t="n">
-        <v>0.070677</v>
+        <v>0.07793799999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GOI5064</t>
+          <t>GODP242</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>IN2920220356</t>
+          <t>INE484J08089</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>7.84% State Government Securities</t>
+          <t>8.4% Godrej Properties Limited**</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4400</v>
+        <v>3500</v>
       </c>
       <c r="F85" t="n">
-        <v>4.67</v>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>3521.86</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0042</v>
       </c>
       <c r="H85" t="n">
-        <v>0.07310999999999999</v>
+        <v>0.08143599999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GOI3725</t>
+          <t>ICFP137</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>IN3120210296</t>
+          <t>INE896L07934</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>7.04% State Government Securities</t>
+          <t>9.85% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>SOVEREIGN</t>
+          <t>CRISIL AA-</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>400</v>
+        <v>3100</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>$0.00%</t>
-        </is>
+        <v>3101.76</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0037</v>
       </c>
       <c r="H86" t="n">
-        <v>0.071449</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MUFL412</t>
+          <t>SBGI20</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>INE414G07IS4</t>
+          <t>INE01MM08012</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>8.85% Muthoot Finance Limited**</t>
+          <t>8.35% SBI General Insurance Company Limited**</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="F87" t="n">
-        <v>7557.16</v>
+        <v>3025.19</v>
       </c>
       <c r="G87" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.0036</v>
       </c>
       <c r="H87" t="n">
-        <v>0.08588800000000001</v>
+        <v>0.082131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SKRP20</t>
+          <t>IPLT20</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>INE08BR07029</t>
+          <t>INE0KZX07023</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>8.08% Suryapet Khammam Road Pvt Ltd**</t>
+          <t>8.6% Infopark Properties Limited**</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CARE AAA</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>7500</v>
+        <v>3000</v>
       </c>
       <c r="F88" t="n">
-        <v>7434.08</v>
+        <v>3005.63</v>
       </c>
       <c r="G88" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0036</v>
       </c>
       <c r="H88" t="n">
-        <v>0.08101800000000001</v>
+        <v>0.0838</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SESA537</t>
+          <t>IINF136</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>INE205A08020</t>
+          <t>INE530B07419</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>9.5% Vedanta Limited**</t>
+          <t>9.8% IIFL Finance Limited**</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>6500</v>
+        <v>3000</v>
       </c>
       <c r="F89" t="n">
-        <v>6465.8</v>
+        <v>2999.98</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0077</v>
+        <v>0.0036</v>
       </c>
       <c r="H89" t="n">
-        <v>0.097867</v>
+        <v>0.101658</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MNGF318</t>
+          <t>GOSL409</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>INE522D07CD6</t>
+          <t>INE233A08154</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>8.8% Manappuram Finance Limited**</t>
+          <t>8.1% Godrej Industries Limited**</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F90" t="n">
-        <v>5991.5</v>
+        <v>2997.06</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0071</v>
+        <v>0.0036</v>
       </c>
       <c r="H90" t="n">
-        <v>0.087482</v>
+        <v>0.081414</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HLIC22</t>
+          <t>MEBP31</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>INE795G08035</t>
+          <t>INE0CCU07116</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>8.05% HDFC Life Insurance Company Limited**</t>
+          <t>7.96% Mindspace Business Parks REIT**</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6000</v>
+        <v>2500</v>
       </c>
       <c r="F91" t="n">
-        <v>5958.3</v>
+        <v>2531.17</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0071</v>
+        <v>0.003</v>
       </c>
       <c r="H91" t="n">
-        <v>0.08161499999999999</v>
+        <v>0.07829899999999999</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NBAR677</t>
+          <t>MMFS1188</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>INE261F08DO9</t>
+          <t>INE774D07VF8</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7.4% National Bank For Agriculture and Rural Development</t>
+          <t>8.18% Mahindra &amp; Mahindra Financial Services Limited**</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3424,32 +3418,32 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>525</v>
+        <v>2500</v>
       </c>
       <c r="F92" t="n">
-        <v>5233.04</v>
+        <v>2524.45</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0062</v>
+        <v>0.003</v>
       </c>
       <c r="H92" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.07035</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BAFL914</t>
+          <t>RUPL50</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>INE296A07SV1</t>
+          <t>INE936D07182</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>7.82% Bajaj Finance Limited**</t>
+          <t>7.9% Jamnagar Utilities &amp; Power Private Limited**</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3458,32 +3452,32 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F93" t="n">
-        <v>5030.38</v>
+        <v>2522.07</v>
       </c>
       <c r="G93" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="H93" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.07575</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HDBF322</t>
+          <t>POWF500</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>INE756I08256</t>
+          <t>INE134E08MC7</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>8.4% HDB Financial Services Limited**</t>
+          <t>7.77% Power Finance Corporation Limited**</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3492,372 +3486,372 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F94" t="n">
-        <v>5026.43</v>
+        <v>2506.56</v>
       </c>
       <c r="G94" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="H94" t="n">
-        <v>0.083047</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NXST23</t>
+          <t>ICFP141</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INE0NDH07035</t>
+          <t>INE896L07975</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>7.72% Nexus Select Trust - REIT**</t>
+          <t>9.95% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F95" t="n">
-        <v>5001.6</v>
+        <v>2502.48</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0059</v>
+        <v>0.003</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0793</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EOPR34</t>
+          <t>IIFW289</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INE041007159</t>
+          <t>INE248U07EQ0</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>7.73% Embassy Office Parks REIT**</t>
+          <t>9.41% 360 One Prime Limited**</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>5000</v>
+        <v>250000</v>
       </c>
       <c r="F96" t="n">
-        <v>4995.33</v>
+        <v>2499.93</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0059</v>
+        <v>0.003</v>
       </c>
       <c r="H96" t="n">
-        <v>0.079808</v>
+        <v>0.0934</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>APTU20</t>
+          <t>CENT241</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>INE04MH07034</t>
+          <t>INE055A08037</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>9% Aptus Finance India Private Limited**</t>
+          <t>8.1% Aditya Birla Real Estate Limited**</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="F97" t="n">
-        <v>4929.54</v>
+        <v>2495.85</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0058</v>
+        <v>0.003</v>
       </c>
       <c r="H97" t="n">
-        <v>0.1058</v>
+        <v>0.082249</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SUMM22</t>
+          <t>SIDB486</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INE507T07070</t>
+          <t>INE556F08KE8</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>7.4% Summit Digitel Infrastructure Limited**</t>
+          <t>7.47% Small Industries Dev Bank of India**</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="F98" t="n">
-        <v>4475.59</v>
+        <v>2492.96</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0053</v>
+        <v>0.003</v>
       </c>
       <c r="H98" t="n">
-        <v>0.07793799999999999</v>
+        <v>0.07804999999999999</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GODP242</t>
+          <t>CENT245</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>INE484J08089</t>
+          <t>INE055A08060</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>8.4% Godrej Properties Limited**</t>
+          <t>8.55% Aditya Birla Real Estate Limited**</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ICRA AA+</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>3500</v>
+        <v>2500</v>
       </c>
       <c r="F99" t="n">
-        <v>3521.86</v>
+        <v>2488.79</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0042</v>
+        <v>0.003</v>
       </c>
       <c r="H99" t="n">
-        <v>0.08143599999999999</v>
+        <v>0.08649999999999999</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ICFP137</t>
+          <t>UNBI337</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>INE896L07934</t>
+          <t>INE692A08094</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>9.85% IndoStar Capital Finance Limited**</t>
+          <t>7.42% Union Bank of India**</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CRISIL AA-</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>3100</v>
+        <v>250</v>
       </c>
       <c r="F100" t="n">
-        <v>3101.76</v>
+        <v>2481.77</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0037</v>
+        <v>0.0029</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1026</v>
+        <v>0.075707</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SBGI20</t>
+          <t>EKAF32</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>INE01MM08012</t>
+          <t>INE124N07697</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>8.35% SBI General Insurance Company Limited**</t>
+          <t>9.25% SK Finance Limited**</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>ICRA AA-</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="F101" t="n">
-        <v>3025.19</v>
+        <v>2478.96</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0036</v>
+        <v>0.0029</v>
       </c>
       <c r="H101" t="n">
-        <v>0.082131</v>
+        <v>0.096599</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IPLT20</t>
+          <t>TOPL39</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>INE0KZX07023</t>
+          <t>INE813H07259</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>8.6% Infopark Properties Limited**</t>
+          <t>8.65% Torrent Power Limited**</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>3000</v>
+        <v>200</v>
       </c>
       <c r="F102" t="n">
-        <v>3005.63</v>
+        <v>2069.39</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0036</v>
+        <v>0.0025</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0838</v>
+        <v>0.079897</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IINF136</t>
+          <t>MUFL424</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>INE530B07419</t>
+          <t>INE414G07JG7</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>9.8% IIFL Finance Limited**</t>
+          <t>9.09% Muthoot Finance Limited**</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F103" t="n">
-        <v>2999.98</v>
+        <v>2034.75</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0036</v>
+        <v>0.0024</v>
       </c>
       <c r="H103" t="n">
-        <v>0.101658</v>
+        <v>0.08565</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>GOSL409</t>
+          <t>CHOL1064</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>INE233A08154</t>
+          <t>INE121A08PP7</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>8.1% Godrej Industries Limited**</t>
+          <t>9.1% Cholamandalam Investment and Finance Company Ltd</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="F104" t="n">
-        <v>2997.06</v>
+        <v>2000.33</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0036</v>
+        <v>0.0024</v>
       </c>
       <c r="H104" t="n">
-        <v>0.081414</v>
+        <v>0.09080000000000001</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MEBP31</t>
+          <t>SBAI204</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>INE0CCU07116</t>
+          <t>INE062A08264</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>7.96% Mindspace Business Parks REIT**</t>
+          <t>5.83% State Bank of India**</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3866,474 +3860,474 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2500</v>
+        <v>200</v>
       </c>
       <c r="F105" t="n">
-        <v>2531.17</v>
+        <v>1966.4</v>
       </c>
       <c r="G105" t="n">
-        <v>0.003</v>
+        <v>0.0023</v>
       </c>
       <c r="H105" t="n">
-        <v>0.07829899999999999</v>
+        <v>0.061828</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MMFS1188</t>
+          <t>TELA27</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>INE774D07VF8</t>
+          <t>INE1C3207016</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>8.18% Mahindra &amp; Mahindra Financial Services Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F106" t="n">
-        <v>2524.45</v>
+        <v>1543.67</v>
       </c>
       <c r="G106" t="n">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="H106" t="n">
-        <v>0.07035</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>RUPL50</t>
+          <t>TELA26</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>INE936D07182</t>
+          <t>INE1C3207024</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>7.9% Jamnagar Utilities &amp; Power Private Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F107" t="n">
-        <v>2522.07</v>
+        <v>1541.88</v>
       </c>
       <c r="G107" t="n">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="H107" t="n">
-        <v>0.07575</v>
+        <v>0.091751</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>POWF500</t>
+          <t>TELA25</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>INE134E08MC7</t>
+          <t>INE1C3207032</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>7.77% Power Finance Corporation Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F108" t="n">
-        <v>2506.56</v>
+        <v>1536.46</v>
       </c>
       <c r="G108" t="n">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="H108" t="n">
-        <v>0.076</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ICFP141</t>
+          <t>TELA24</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>INE896L07975</t>
+          <t>INE1C3207040</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>9.95% IndoStar Capital Finance Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F109" t="n">
-        <v>2502.48</v>
+        <v>1532.82</v>
       </c>
       <c r="G109" t="n">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="H109" t="n">
-        <v>0.1026</v>
+        <v>0.092</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IIFW289</t>
+          <t>TELA23</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>INE248U07EQ0</t>
+          <t>INE1C3207065</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>9.41% 360 One Prime Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>250000</v>
+        <v>1500</v>
       </c>
       <c r="F110" t="n">
-        <v>2499.93</v>
+        <v>1529.59</v>
       </c>
       <c r="G110" t="n">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="H110" t="n">
-        <v>0.0934</v>
+        <v>0.091878</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CENT241</t>
+          <t>TELA22</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>INE055A08037</t>
+          <t>INE1C3207073</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>8.1% Aditya Birla Real Estate Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F111" t="n">
-        <v>2495.85</v>
+        <v>1525.03</v>
       </c>
       <c r="G111" t="n">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="H111" t="n">
-        <v>0.082249</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SIDB486</t>
+          <t>TELA21</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>INE556F08KE8</t>
+          <t>INE1C3207081</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>7.47% Small Industries Dev Bank of India**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="F112" t="n">
-        <v>2492.96</v>
+        <v>1520.21</v>
       </c>
       <c r="G112" t="n">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="H112" t="n">
-        <v>0.07804999999999999</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CENT245</t>
+          <t>TELA20</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INE055A08060</t>
+          <t>INE1C3207057</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>8.55% Aditya Birla Real Estate Limited**</t>
+          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>FITCH AA(CE)</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2500</v>
+        <v>1500</v>
       </c>
       <c r="F113" t="n">
-        <v>2488.79</v>
+        <v>1514.94</v>
       </c>
       <c r="G113" t="n">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="H113" t="n">
-        <v>0.08649999999999999</v>
+        <v>0.0919</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>UNBI337</t>
+          <t>ICFP147</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>INE692A08094</t>
+          <t>INE896L07983</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>7.42% Union Bank of India**</t>
+          <t>10.5% IndoStar Capital Finance Limited**</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CARE AA-</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>250</v>
+        <v>150000</v>
       </c>
       <c r="F114" t="n">
-        <v>2481.77</v>
+        <v>1503.11</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0029</v>
+        <v>0.0018</v>
       </c>
       <c r="H114" t="n">
-        <v>0.075707</v>
+        <v>0.1026</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EKAF32</t>
+          <t>JVSL215</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>INE124N07697</t>
+          <t>INE019A08033</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>9.25% SK Finance Limited**</t>
+          <t>8.25% JSW Steel Limited**</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ICRA AA-</t>
+          <t>ICRA AA</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>2500</v>
+        <v>150</v>
       </c>
       <c r="F115" t="n">
-        <v>2478.96</v>
+        <v>1498.2</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0029</v>
+        <v>0.0018</v>
       </c>
       <c r="H115" t="n">
-        <v>0.096599</v>
+        <v>0.0828</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TOPL39</t>
+          <t>HLIC23</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>INE813H07259</t>
+          <t>INE795G08043</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>8.65% Torrent Power Limited**</t>
+          <t>8.1% HDFC Life Insurance Company Limited**</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>ICRA AAA</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="F116" t="n">
-        <v>2069.39</v>
+        <v>998.0599999999999</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0025</v>
+        <v>0.0012</v>
       </c>
       <c r="H116" t="n">
-        <v>0.079897</v>
+        <v>0.081415</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MUFL424</t>
+          <t>IIFC67</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>INE414G07JG7</t>
+          <t>INE787H08154</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>9.09% Muthoot Finance Limited**</t>
+          <t>7.47% India Infrastructure Fin Co Ltd**</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>CRISIL AA+</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F117" t="n">
-        <v>2034.75</v>
+        <v>995.38</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0024</v>
+        <v>0.0012</v>
       </c>
       <c r="H117" t="n">
-        <v>0.08565</v>
+        <v>0.07642500000000001</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CHOL1064</t>
+          <t>IINF141</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>INE121A08PP7</t>
+          <t>INE530B07450</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>9.1% Cholamandalam Investment and Finance Company Ltd</t>
+          <t>9.9% IIFL Finance Limited**</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>ICRA AA+</t>
+          <t>CRISIL AA</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="F118" t="n">
-        <v>2000.33</v>
+        <v>993.02</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0024</v>
+        <v>0.0012</v>
       </c>
       <c r="H118" t="n">
-        <v>0.09080000000000001</v>
+        <v>0.10615</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SBAI204</t>
+          <t>BHFL122</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>INE062A08264</t>
+          <t>INE377Y07508</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>5.83% State Bank of India**</t>
+          <t>7.89% Bajaj Housing Finance Limited</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4342,2437 +4336,533 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="F119" t="n">
-        <v>1966.4</v>
+        <v>508.56</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0023</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H119" t="n">
-        <v>0.061828</v>
+        <v>0.07617500000000001</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TELA27</t>
+          <t>NBAR772</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>INE1C3207016</t>
+          <t>INE261F08EH1</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>7.62% National Bank For Agriculture and Rural Development**</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F120" t="n">
-        <v>1543.67</v>
+        <v>501.7</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0018</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0.0919</v>
+        <v>0.0751</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TELA26</t>
+          <t>NHBA329</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>INE1C3207024</t>
+          <t>INE557F08FY4</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>7.59% National Housing Bank**</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F121" t="n">
-        <v>1541.88</v>
+        <v>501.42</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0018</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0.091751</v>
+        <v>0.07442500000000001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TELA25</t>
+          <t>MUFL405</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>INE1C3207032</t>
+          <t>INE414G07IG9</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>8.43% Muthoot Finance Limited**</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="F122" t="n">
-        <v>1536.46</v>
+        <v>498.65</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0018</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0.092</v>
+        <v>0.08575000000000001</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TELA24</t>
+          <t>POWF411</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>INE1C3207040</t>
+          <t>INE134E08JP5</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>7.85% Power Finance Corporation Limited**</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1500</v>
+        <v>40</v>
       </c>
       <c r="F123" t="n">
-        <v>1532.82</v>
+        <v>405.73</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0018</v>
+        <v>0.0005</v>
       </c>
       <c r="H123" t="n">
-        <v>0.092</v>
+        <v>0.074507</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TELA23</t>
+          <t>GOSL303</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>INE1C3207065</t>
+          <t>INE233A08063</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>8.35% Godrej Industries Limited**</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AA+</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="F124" t="n">
-        <v>1529.59</v>
+        <v>400.84</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0018</v>
+        <v>0.0005</v>
       </c>
       <c r="H124" t="n">
-        <v>0.091878</v>
+        <v>0.08125</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TELA22</t>
+          <t>RECL436</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>INE1C3207073</t>
+          <t>INE020B08EL2</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>7.44% REC Limited**</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="F125" t="n">
-        <v>1525.03</v>
+        <v>299.41</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0018</v>
+        <v>0.0004</v>
       </c>
       <c r="H125" t="n">
-        <v>0.0919</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>TELA21</t>
+          <t>BHFL92</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>INE1C3207081</t>
+          <t>INE377Y07359</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>7.89% Bajaj Housing Finance Limited**</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>CRISIL AAA</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="F126" t="n">
-        <v>1520.21</v>
+        <v>203.16</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0018</v>
+        <v>0.0002</v>
       </c>
       <c r="H126" t="n">
-        <v>0.0919</v>
+        <v>0.075937</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TELA20</t>
+          <t>IDFC234</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>INE1C3207057</t>
+          <t>INE092T08592</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>9.35% Telangana State Industrial Infrastructure Corporation Limited</t>
+          <t>8.9% IDFC First Bank Limited**</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>FITCH AA(CE)</t>
+          <t>ICRA AA+</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1500</v>
+        <v>10</v>
       </c>
       <c r="F127" t="n">
-        <v>1514.94</v>
+        <v>100.25</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0018</v>
+        <v>0.0001</v>
       </c>
       <c r="H127" t="n">
-        <v>0.0919</v>
+        <v>0.0832</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ICFP147</t>
+          <t>NHIT23</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>INE896L07983</t>
+          <t>INE0H7R07066</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10.5% IndoStar Capital Finance Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>CARE AA-</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>150000</v>
+        <v>6250</v>
       </c>
       <c r="F128" t="n">
-        <v>1503.11</v>
+        <v>3208.14</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0018</v>
+        <v>0.0038</v>
       </c>
       <c r="H128" t="n">
-        <v>0.1026</v>
+        <v>0.077649</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>JVSL215</t>
+          <t>NHIT24</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>INE019A08033</t>
+          <t>INE0H7R07058</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>8.25% JSW Steel Limited**</t>
+          <t>National Highways Infra Trust**</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>ICRA AA</t>
+          <t>CARE AAA</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>150</v>
+        <v>6250</v>
       </c>
       <c r="F129" t="n">
-        <v>1498.2</v>
+        <v>2989.31</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0018</v>
+        <v>0.0035</v>
       </c>
       <c r="H129" t="n">
-        <v>0.0828</v>
+        <v>0.0772</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HLIC23</t>
+          <t>IUNT23</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>INE795G08043</t>
+          <t>INE1CBK15011</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>8.1% HDFC Life Insurance Company Limited**</t>
+          <t>India Universal Trust**</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ICRA AAA</t>
+          <t>CRISIL AAA(SO)</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1000</v>
+        <v>49.999999</v>
       </c>
       <c r="F130" t="n">
-        <v>998.0599999999999</v>
+        <v>4254.79</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="H130" t="n">
-        <v>0.081415</v>
+        <v>0.08384999999999999</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IIFC67</t>
+          <t>VAJR24</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>INE787H08154</t>
+          <t>INE10VT15022</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>7.47% India Infrastructure Fin Co Ltd**</t>
+          <t>Vajra Trust**</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CARE AAA</t>
+          <t>ICRA AAA(SO)</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="F131" t="n">
-        <v>995.38</v>
+        <v>1893.57</v>
       </c>
       <c r="G131" t="n">
-        <v>0.0012</v>
+        <v>0.0022</v>
       </c>
       <c r="H131" t="n">
-        <v>0.07642500000000001</v>
+        <v>0.100969</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IINF141</t>
+          <t>VAJR21</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>INE530B07450</t>
+          <t>INE0UQJ15015</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>9.9% IIFL Finance Limited**</t>
+          <t>Vajra Trust**</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>CRISIL AA</t>
+          <t>ICRA AA+(SO)</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="F132" t="n">
-        <v>993.02</v>
+        <v>1827.6</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0012</v>
+        <v>0.0022</v>
       </c>
       <c r="H132" t="n">
-        <v>0.10615</v>
+        <v>0.101869</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BHFL122</t>
+          <t>UTIB1331</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>INE377Y07508</t>
+          <t>INE238AD6918</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>7.89% Bajaj Housing Finance Limited</t>
+          <t>Axis Bank Limited**</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>CRISIL AAA</t>
+          <t>CRISIL A1+</t>
         </is>
       </c>
       <c r="E133" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F133" t="n">
-        <v>508.56</v>
+        <v>4806.79</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0057</v>
       </c>
       <c r="H133" t="n">
-        <v>0.07617500000000001</v>
+        <v>0.07641299999999999</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>NBAR772</t>
-        </is>
-      </c>
+      <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>INE261F08EH1</t>
+          <t>INE062A08264</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>7.62% National Bank For Agriculture and Rural Development**</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E134" t="n">
-        <v>500</v>
-      </c>
-      <c r="F134" t="n">
-        <v>501.7</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.0751</v>
-      </c>
+          <t>5.83% SBI Sr3 BSIII Tier2 (M26/10/30)CALL24/10/25</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>0.0838933863985</v>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>NHBA329</t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>INE557F08FY4</t>
+          <t>INE692A08094</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>7.59% National Housing Bank**</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E135" t="n">
-        <v>500</v>
-      </c>
-      <c r="F135" t="n">
-        <v>501.42</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.07442500000000001</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>MUFL405</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>INE414G07IG9</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>8.43% Muthoot Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
-      <c r="E136" t="n">
-        <v>500</v>
-      </c>
-      <c r="F136" t="n">
-        <v>498.65</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.08575000000000001</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>POWF411</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>INE134E08JP5</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>7.85% Power Finance Corporation Limited**</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E137" t="n">
-        <v>40</v>
-      </c>
-      <c r="F137" t="n">
-        <v>405.73</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.074507</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>GOSL303</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>INE233A08063</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>8.35% Godrej Industries Limited**</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>CRISIL AA+</t>
-        </is>
-      </c>
-      <c r="E138" t="n">
-        <v>400</v>
-      </c>
-      <c r="F138" t="n">
-        <v>400.84</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.08125</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>RECL436</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>INE020B08EL2</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>7.44% REC Limited**</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E139" t="n">
-        <v>300</v>
-      </c>
-      <c r="F139" t="n">
-        <v>299.41</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>BHFL92</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>INE377Y07359</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>7.89% Bajaj Housing Finance Limited**</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CRISIL AAA</t>
-        </is>
-      </c>
-      <c r="E140" t="n">
-        <v>20</v>
-      </c>
-      <c r="F140" t="n">
-        <v>203.16</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.075937</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>IDFC234</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>INE092T08592</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>8.9% IDFC First Bank Limited**</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>ICRA AA+</t>
-        </is>
-      </c>
-      <c r="E141" t="n">
-        <v>10</v>
-      </c>
-      <c r="F141" t="n">
-        <v>100.25</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.0832</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>NHIT23</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>INE0H7R07066</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E142" t="n">
-        <v>6250</v>
-      </c>
-      <c r="F142" t="n">
-        <v>3208.14</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.077649</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>NHIT24</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>INE0H7R07058</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>National Highways Infra Trust**</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>CARE AAA</t>
-        </is>
-      </c>
-      <c r="E143" t="n">
-        <v>6250</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2989.31</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.0035</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.0772</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>IUNT23</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>INE1CBK15011</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>India Universal Trust**</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>CRISIL AAA(SO)</t>
-        </is>
-      </c>
-      <c r="E144" t="n">
-        <v>49.999999</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4254.79</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.08384999999999999</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>VAJR24</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>INE10VT15022</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Vajra Trust**</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>ICRA AAA(SO)</t>
-        </is>
-      </c>
-      <c r="E145" t="n">
-        <v>20</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1893.57</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.100969</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>VAJR21</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>INE0UQJ15015</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Vajra Trust**</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>ICRA AA+(SO)</t>
-        </is>
-      </c>
-      <c r="E146" t="n">
-        <v>30</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1827.6</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0.101869</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>UTIB1331</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>INE238AD6918</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Axis Bank Limited**</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>CRISIL A1+</t>
-        </is>
-      </c>
-      <c r="E147" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F147" t="n">
-        <v>4806.79</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0.07641299999999999</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>147579</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>INF204KB15D0</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Nippon India ETF BSE Sensex Next 50</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="n">
-        <v>3368092</v>
-      </c>
-      <c r="F148" t="n">
-        <v>2491.71</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="H148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr"/>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Long/Short</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Name of the Instrument</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Industry</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>Quantity.</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Market/Fair Value (Rs. in Lacs).</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> % to NAV.</t>
-        </is>
-      </c>
-      <c r="H149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr"/>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>HDFC Bank Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E150" t="n">
-        <v>543950</v>
-      </c>
-      <c r="F150" t="n">
-        <v>9453.85</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="H150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr"/>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>ICICI Bank Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E151" t="n">
-        <v>697200</v>
-      </c>
-      <c r="F151" t="n">
-        <v>8445.18</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr"/>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Infosys Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E152" t="n">
-        <v>383200</v>
-      </c>
-      <c r="F152" t="n">
-        <v>6507.69</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.0077</v>
-      </c>
-      <c r="H152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr"/>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>IndusInd Bank Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E153" t="n">
-        <v>467500</v>
-      </c>
-      <c r="F153" t="n">
-        <v>4649.52</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="H153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr"/>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Bharti Airtel Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E154" t="n">
-        <v>264100</v>
-      </c>
-      <c r="F154" t="n">
-        <v>4170.93</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="H154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr"/>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Axis Bank Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E155" t="n">
-        <v>340000</v>
-      </c>
-      <c r="F155" t="n">
-        <v>3472.76</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="H155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr"/>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>NTPC Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E156" t="n">
-        <v>1045500</v>
-      </c>
-      <c r="F156" t="n">
-        <v>3269.28</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="H156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr"/>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Reliance Industries Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E157" t="n">
-        <v>256000</v>
-      </c>
-      <c r="F157" t="n">
-        <v>3088.64</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="H157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr"/>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Jubilant Foodworks Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Leisure Services</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>478750</v>
-      </c>
-      <c r="F158" t="n">
-        <v>3012.06</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="H158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr"/>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>State Bank of India_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Banks</t>
-        </is>
-      </c>
-      <c r="E159" t="n">
-        <v>376500</v>
-      </c>
-      <c r="F159" t="n">
-        <v>2608.77</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="H159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr"/>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Larsen &amp; Toubro Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Construction</t>
-        </is>
-      </c>
-      <c r="E160" t="n">
-        <v>81150</v>
-      </c>
-      <c r="F160" t="n">
-        <v>2581.79</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.0031</v>
-      </c>
-      <c r="H160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr"/>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Hindustan Unilever Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E161" t="n">
-        <v>108900</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2399.5</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.0028</v>
-      </c>
-      <c r="H161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr"/>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Godrej Consumer Products Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>Personal Products</t>
-        </is>
-      </c>
-      <c r="E162" t="n">
-        <v>221000</v>
-      </c>
-      <c r="F162" t="n">
-        <v>2236.3</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.0027</v>
-      </c>
-      <c r="H162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr"/>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Mahindra &amp; Mahindra Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E163" t="n">
-        <v>81025</v>
-      </c>
-      <c r="F163" t="n">
-        <v>2107.38</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="H163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr"/>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Tata Consultancy Services Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E164" t="n">
-        <v>58975</v>
-      </c>
-      <c r="F164" t="n">
-        <v>2066.45</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.0025</v>
-      </c>
-      <c r="H164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr"/>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>ITC Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Diversified FMCG</t>
-        </is>
-      </c>
-      <c r="E165" t="n">
-        <v>472000</v>
-      </c>
-      <c r="F165" t="n">
-        <v>1872.9</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr"/>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Avenue Supermarts Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E166" t="n">
-        <v>53700</v>
-      </c>
-      <c r="F166" t="n">
-        <v>1839.36</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.0022</v>
-      </c>
-      <c r="H166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr"/>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Bharat Forge Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E167" t="n">
-        <v>172500</v>
-      </c>
-      <c r="F167" t="n">
-        <v>1760.02</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr"/>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Power Finance Corporation Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E168" t="n">
-        <v>477100</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1747.86</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="H168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr"/>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Bajaj Finance Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Finance</t>
-        </is>
-      </c>
-      <c r="E169" t="n">
-        <v>19000</v>
-      </c>
-      <c r="F169" t="n">
-        <v>1629.64</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr"/>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Maruti Suzuki India Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E170" t="n">
-        <v>13050</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1565.96</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="H170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr"/>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Eicher Motors Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E171" t="n">
-        <v>31850</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1528.02</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="H171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr"/>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>HDFC Life Insurance Company Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E172" t="n">
-        <v>234300</v>
-      </c>
-      <c r="F172" t="n">
-        <v>1433.68</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr"/>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>ICICI Lombard General Insurance Company Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E173" t="n">
-        <v>83250</v>
-      </c>
-      <c r="F173" t="n">
-        <v>1413.04</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr"/>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Havells India Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Consumer Durables</t>
-        </is>
-      </c>
-      <c r="E174" t="n">
-        <v>98500</v>
-      </c>
-      <c r="F174" t="n">
-        <v>1409.14</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr"/>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>PB Fintech Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>Financial Technology (Fintech)</t>
-        </is>
-      </c>
-      <c r="E175" t="n">
-        <v>89375</v>
-      </c>
-      <c r="F175" t="n">
-        <v>1314.04</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr"/>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Tata Power Company Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="E176" t="n">
-        <v>383400</v>
-      </c>
-      <c r="F176" t="n">
-        <v>1304.33</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr"/>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Grasim Industries Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>Cement &amp; Cement Products</t>
-        </is>
-      </c>
-      <c r="E177" t="n">
-        <v>53750</v>
-      </c>
-      <c r="F177" t="n">
-        <v>1247.62</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="H177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr"/>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>SBI Life Insurance Company Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E178" t="n">
-        <v>84375</v>
-      </c>
-      <c r="F178" t="n">
-        <v>1208.67</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="H178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr"/>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Dr. Reddy's Laboratories Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E179" t="n">
-        <v>83750</v>
-      </c>
-      <c r="F179" t="n">
-        <v>938.42</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="H179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr"/>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>CG Power and Industrial Solutions Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E180" t="n">
-        <v>153700</v>
-      </c>
-      <c r="F180" t="n">
-        <v>882.78</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr"/>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>InterGlobe Aviation Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>Transport Services</t>
-        </is>
-      </c>
-      <c r="E181" t="n">
-        <v>18750</v>
-      </c>
-      <c r="F181" t="n">
-        <v>840.92</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr"/>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>LTIMindtree Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>IT - Software</t>
-        </is>
-      </c>
-      <c r="E182" t="n">
-        <v>17850</v>
-      </c>
-      <c r="F182" t="n">
-        <v>837.84</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr"/>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>United Spirits Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>Beverages</t>
-        </is>
-      </c>
-      <c r="E183" t="n">
-        <v>63700</v>
-      </c>
-      <c r="F183" t="n">
-        <v>821.16</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="H183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr"/>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Zomato Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>Retailing</t>
-        </is>
-      </c>
-      <c r="E184" t="n">
-        <v>338000</v>
-      </c>
-      <c r="F184" t="n">
-        <v>753.23</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr"/>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Indus Towers Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>Telecom - Services</t>
-        </is>
-      </c>
-      <c r="E185" t="n">
-        <v>226100</v>
-      </c>
-      <c r="F185" t="n">
-        <v>735.28</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="H185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr"/>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Samvardhana Motherson International Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Auto Components</t>
-        </is>
-      </c>
-      <c r="E186" t="n">
-        <v>575100</v>
-      </c>
-      <c r="F186" t="n">
-        <v>684.54</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr"/>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>ABB India Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E187" t="n">
-        <v>13500</v>
-      </c>
-      <c r="F187" t="n">
-        <v>670.48</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr"/>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Tata Steel Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E188" t="n">
-        <v>473000</v>
-      </c>
-      <c r="F188" t="n">
-        <v>651.04</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="H188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr"/>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>One 97 Communications Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Financial Technology (Fintech)</t>
-        </is>
-      </c>
-      <c r="E189" t="n">
-        <v>85800</v>
-      </c>
-      <c r="F189" t="n">
-        <v>614.97</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr"/>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Lupin Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E190" t="n">
-        <v>32300</v>
-      </c>
-      <c r="F190" t="n">
-        <v>614.91</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr"/>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Bharat Heavy Electricals Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>Electrical Equipment</t>
-        </is>
-      </c>
-      <c r="E191" t="n">
-        <v>333375</v>
-      </c>
-      <c r="F191" t="n">
-        <v>600.41</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="H191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr"/>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Biocon Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals &amp; Biotechnology</t>
-        </is>
-      </c>
-      <c r="E192" t="n">
-        <v>175000</v>
-      </c>
-      <c r="F192" t="n">
-        <v>531.04</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr"/>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Apollo Hospitals Enterprise Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>Healthcare Services</t>
-        </is>
-      </c>
-      <c r="E193" t="n">
-        <v>8625</v>
-      </c>
-      <c r="F193" t="n">
-        <v>525.27</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr"/>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Hindustan Aeronautics Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>Aerospace &amp; Defense</t>
-        </is>
-      </c>
-      <c r="E194" t="n">
-        <v>16650</v>
-      </c>
-      <c r="F194" t="n">
-        <v>517.33</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr"/>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Jindal Steel &amp; Power Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>Ferrous Metals</t>
-        </is>
-      </c>
-      <c r="E195" t="n">
-        <v>57500</v>
-      </c>
-      <c r="F195" t="n">
-        <v>492.78</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="H195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr"/>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Hindustan Petroleum Corporation Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>Petroleum Products</t>
-        </is>
-      </c>
-      <c r="E196" t="n">
-        <v>155925</v>
-      </c>
-      <c r="F196" t="n">
-        <v>460.91</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr"/>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Short</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Bajaj Auto Limited_27/03/2025</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Automobiles</t>
-        </is>
-      </c>
-      <c r="E197" t="n">
-        <v>4800</v>
-      </c>
-      <c r="F197" t="n">
-        <v>381.63</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr"/>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>isin_code</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>security_name</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Yield to Call</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr"/>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>INE062A08264</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>5.83% SBI Sr3 BSIII Tier2 (M26/10/30)CALL24/10/25</t>
-        </is>
-      </c>
-      <c r="D199" t="n">
-        <v>0.0838933863985</v>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr"/>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>INE692A08094</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
           <t>7.42% Union Bk of Ind BSIII Tier2 NCD (MD16/09/30)</t>
         </is>
       </c>
-      <c r="D200" t="n">
+      <c r="D135" t="n">
         <v>0.08532200000000001</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
